--- a/src/test/resources/testData/Batch13ExcelFile.xlsx
+++ b/src/test/resources/testData/Batch13ExcelFile.xlsx
@@ -7,14 +7,14 @@
     <workbookView windowWidth="28000" windowHeight="10580"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="employeeData" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
   <si>
     <t>firstName</t>
   </si>
@@ -40,52 +40,40 @@
     <t>Loki</t>
   </si>
   <si>
-    <t>Koki</t>
-  </si>
-  <si>
-    <t>Pecikoza</t>
-  </si>
-  <si>
-    <t>/Users/katarinasusic/IdeaProjects/Cucumber/_124800859_gettyimages-817514614.jpeg</t>
-  </si>
-  <si>
-    <t>Loki123</t>
-  </si>
-  <si>
-    <t>syntax123</t>
-  </si>
-  <si>
-    <t>Reese</t>
-  </si>
-  <si>
-    <t>Risko</t>
-  </si>
-  <si>
-    <t>Sibinski</t>
-  </si>
-  <si>
-    <t>Risi123</t>
-  </si>
-  <si>
-    <t>Boban</t>
-  </si>
-  <si>
-    <t>Bobiska</t>
-  </si>
-  <si>
-    <t>Susic</t>
-  </si>
-  <si>
-    <t>Bobi123</t>
-  </si>
-  <si>
-    <t>Tedi</t>
-  </si>
-  <si>
-    <t>TedaMeda</t>
-  </si>
-  <si>
-    <t>Tedi123</t>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>Lokanic</t>
+  </si>
+  <si>
+    <t>/Users/katarinasusic/IdeaProjects/Cucumber/src/test/resources/testData/_124800859_gettyimages-817514614.jpeg</t>
+  </si>
+  <si>
+    <t>ss3990</t>
+  </si>
+  <si>
+    <t>Syntax123!</t>
+  </si>
+  <si>
+    <t>Risi</t>
+  </si>
+  <si>
+    <t>ms</t>
+  </si>
+  <si>
+    <t>Riskanic</t>
+  </si>
+  <si>
+    <t>ss3991</t>
+  </si>
+  <si>
+    <t>Bobi</t>
+  </si>
+  <si>
+    <t>Bobanic</t>
+  </si>
+  <si>
+    <t>ss3992</t>
   </si>
 </sst>
 </file>
@@ -93,10 +81,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -117,6 +105,98 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -138,17 +218,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -162,90 +233,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -272,31 +260,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -308,139 +428,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -469,26 +457,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -527,16 +500,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -551,141 +515,165 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1024,17 +1012,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.890625" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="6"/>
   <cols>
-    <col min="2" max="2" width="11.578125" customWidth="1"/>
-    <col min="4" max="4" width="77.375" customWidth="1"/>
-    <col min="7" max="7" width="15.6875" customWidth="1"/>
+    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="2" max="2" width="12.21875" customWidth="1"/>
+    <col min="4" max="4" width="101.5" customWidth="1"/>
+    <col min="6" max="6" width="10.78125" customWidth="1"/>
+    <col min="7" max="7" width="16.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1111,16 +1101,16 @@
         <v>17</v>
       </c>
       <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
         <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>19</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F4" t="s">
         <v>12</v>
@@ -1129,31 +1119,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>